--- a/biology/Zoologie/Arhopala/Arhopala.xlsx
+++ b/biology/Zoologie/Arhopala/Arhopala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arhopala est un genre d'insectes lépidoptères de la sous-famille des Theclinae (famille des Lycaenidae) et compte plus de 200 espèces localisées dans la zone Asie-Pacifique. En anglais ces espèces sont appelées Oakblues.
 </t>
@@ -511,18 +523,20 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sous-genre centaurus (Nilasera est  valide)
 Arhopala acron
 Arhopala adherbal Grose-Smith, 1902
 Arhopala admete (Hewitson, 1863)
-Arhopala aexone (Hewitson, [1863])
+Arhopala aexone (Hewitson, )
 Arhopala alkisthenes Fruhstorfer, 1914
 Arhopala amantes – Large Oakblue - Grand Azuré du chene
 Arhopala ander
-Arhopala araxes C. &amp; R.Felder, [1865]
+Arhopala araxes C. &amp; R.Felder, 
 Arhopala azenia
 Arhopala centaurus – Centaur Oakblue, Dull Oakblue
 Arhopala eurisus
@@ -531,7 +545,7 @@
 Arhopala madytus Fruhstorfer, 1914 – Bright Oakblue
 Arhopala meander Boisduval, 1832
 Arhopala micale Blanchard, 1853
-Arhopala philander C. &amp; R.Felder, [1865]
+Arhopala philander C. &amp; R.Felder, 
 Arhopala pseudocentaurus (Doubleday, 1847)
 Arhopala sophrosyne
 Arhopala styx
@@ -553,7 +567,7 @@
 Arhopala anarte (Hewitson, 1862) – Magnificent Oakblue
 Arhopala belphoebe Doherty, 1889
 Arhopala camdana Corbet, 1941
-Arhopala camdeo (Moore, [1858]) – Lilac Oakblue
+Arhopala camdeo (Moore, ) – Lilac Oakblue
 Arhopala dispar Riley &amp; Godfrey, 1921
 Arhopala hellada Fruhstorfer, 1914
 Arhopala johoreana Corbet, 1941
@@ -569,8 +583,8 @@
 Arhopala khamti Doherty, 1891 – Khamti Oakblue, Doherty's Dull Oakblue
 Arhopala oenea (Hewitson, 1869) – Hewitson's Oakblue
 Sous-genre epimuta
-Arhopala atosia (Hewitson, [1863])
-Arhopala epimuta (Moore, [1858])
+Arhopala atosia (Hewitson, )
+Arhopala epimuta (Moore, )
 Arhopala lurida Corbet, 1941
 Sous-genre amphimuta
 amphimuta subgroup
@@ -583,7 +597,7 @@
 Arhopala inornata (C. &amp; R.Felder, 1860) (classement incertain)
 Arhopala kurzi (Distant, 1885)
 Arhopala major (Staudinger, 1889)
-Arhopala moolaiana (Moore, [1879])
+Arhopala moolaiana (Moore, )
 Arhopala norda (Evans, 1957)
 Arhopala sceva Bethune-Baker, 1903
 Arhopala stubbsi Eliot, 1962
@@ -593,17 +607,17 @@
 Arhopala muta (Hewitson, 1862)
 Arhopala tropaea Corbet, 1941
 Sous-genre perimuta (ou Darasana)
-Arhopala antimuta C. &amp; R.Felder, [1865]
-Arhopala metamuta (Hewitson, [1863])
-Arhopala perimuta (Moore, [1858]) – Yellow-disk Tailless Oakblue
+Arhopala antimuta C. &amp; R.Felder, 
+Arhopala metamuta (Hewitson, )
+Arhopala perimuta (Moore, ) – Yellow-disk Tailless Oakblue
 Sous-genre agesilaus
 Arhopala agesilaus (Staudinger, 1889)
-Arhopala avatha de Nicéville, [1896]
+Arhopala avatha de Nicéville, 
 Arhopala democritus (Fabricius, 1793) (classement incertain)
 Sous-genre alitaeus
 Arhopala aida de Nicéville, 1889
 Arhopala alitaeus (Hewitson, 1862)
-Arhopala ariana (Evans, [1925])
+Arhopala ariana (Evans, )
 Arhopala arianaga Corbet, 1941
 Arhopala denta (Evans, 1957)
 Arhopala elopura Druce, 1894
@@ -611,26 +625,26 @@
 Arhopala pseudomuta (Staudinger, 1889)
 Arhopala sintanga Corbet, 1948
 Sous-genre agrata
-Arhopala ace de Nicéville, [1893] – Tytler's Oakblue
+Arhopala ace de Nicéville,  – Tytler's Oakblue
 Arhopala agrata – De Niceville's Oakblue
-Arhopala azinis de Nicéville, [1896]
+Arhopala azinis de Nicéville, 
 Sous-genre cleander
 Arhopala aruana
 Arhopala ate
 Arhopala athada (Staudinger, 1889)
 Arhopala cleander (C.Felder, 1860)
 Arhopala silhetensis (Hewitson, 1862) – Sylhet Oakblue
-Arhopala zambra Swinhoe, [1911]
+Arhopala zambra Swinhoe, 
 Sous-genre alea
 Arhopala aenigma Eliot, 1972
 Arhopala agaba (Hewitson, 1862) – Purple-glazed Oakblue
 Arhopala alea (Hewitson, 1862)
-Arhopala aroa (Hewitson, [1863])
-Arhopala aurelia (Evans, [1925])
+Arhopala aroa (Hewitson, )
+Arhopala aurelia (Evans, )
 Arhopala evansi Corbet, 1941
 Arhopala milleri Corbet, 1941
 Arhopala normani Eliot, 1972
-Arhopala phaenops C. &amp; R.Felder, [1865]
+Arhopala phaenops C. &amp; R.Felder, 
 Arhopala phanda Corbet, 1941
 Arhopala ralanda Corbet, 1941
 Arhopala selta (Hewitson, 1869)
@@ -654,14 +668,14 @@
 Arhopala tameanga Bethune-Baker, 1896
 Arhopala wildei Miskin, 1891
 Sous-genre rama
-Arhopala arvina (Hewitson, [1863]) – Purple-brown Tailless Oakblue
+Arhopala arvina (Hewitson, ) – Purple-brown Tailless Oakblue
 Arhopala buddha Bethune-Baker, 1903
-Arhopala paralea (Evans, [1925]) – Glazed Oakblue
+Arhopala paralea (Evans, ) – Glazed Oakblue
 Arhopala rama Kollar, 1844 – Dark Himalayan Oakblue
 Sous-genre agelastus
 Arhopala agelastus (Hewitson, 1862)
 Arhopala alaconia (Hewitson, 1869)
-Arhopala alesia (C. &amp; R.Felder, [1865])
+Arhopala alesia (C. &amp; R.Felder, )
 Arhopala barami Bethune-Baker, 1903
 Arhopala cardoni Corbet, 1941
 Arhopala epimete (Staudinger, 1889)
@@ -673,7 +687,7 @@
 Sous-genre aurea (Aurea est valide)
 Arhopala aurea (Hewitson, 1862)
 Arhopala borneensis Bethune-Baker, 1896
-Arhopala caeca (Hewitson, [1863])
+Arhopala caeca (Hewitson, )
 Arhopala stinga (Evans, 1957)
 Arhopala trogon (Distant, 1884)
 Sous-genre ganesa  ( Panchala est valide)
@@ -685,7 +699,7 @@
 Arhopala paraganesa (de Nicéville, 1882) – Dusky Bushblue
 Sous-genre abseus
 Arhopala abseus – Aberrant Oakblue
-Arhopala anella de Nicéville, [1895]
+Arhopala anella de Nicéville, 
 Sous-genre thamyras
 Arhopala arta
 Arhopala axina
@@ -727,21 +741,23 @@
           <t>Incertae sedis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Arhopala aberrans (de Nicéville, [1889]) – Pale Bushblue
+Arhopala aberrans (de Nicéville, ) – Pale Bushblue
 Arhopala acetes
-Arhopala aeeta de Nicéville, [1893]
+Arhopala aeeta de Nicéville, 
 Arhopala alax (Evans, 1932) – Silky Oakblue
 Arhopala alexandrae Schröder &amp; Treadaway, 1978
 Arhopala anamuta Semper, 1890
 Arhopala annulata (Felder, 1860)
 Arhopala argentea Staudinger, 1888
 Arhopala aronya (Hewitson, 1869)
-Arhopala arsenius (C. &amp; R.Felder, [1865])
-Arhopala asinarus C. &amp; R.Felder, [1865]
-Arhopala asopia (Hewitson, [1869]) – Plain Tailless Oakblue
+Arhopala arsenius (C. &amp; R.Felder, )
+Arhopala asinarus C. &amp; R.Felder, 
+Arhopala asopia (Hewitson, ) – Plain Tailless Oakblue
 Arhopala atrax – Dark Broken-band Oakblue, Indian Oakblue (type species of Satadra)
 Arhopala bella Bethune-Baker, 1896
 Arhopala birmana – Burmese Bushblue
@@ -773,12 +789,12 @@
 Arhopala ocrida (Hewitson, 1869)
 Arhopala ormistoni – Ormiston's Oakblue
 Arhopala pabihira
-Arhopala paramuta (de Nicéville, [1884]) – Hooked Oakblue
+Arhopala paramuta (de Nicéville, ) – Hooked Oakblue
 Arhopala phryxus Boisduval, 1832
 Arhopala pseudovihara (Hayashi, 1981)
 Arhopala qiongdaoensis Chou &amp; Gu, 1994
 Arhopala quercoides
-Arhopala rudepoema Seki, [1995]
+Arhopala rudepoema Seki, 
 Arhopala sakaguchii (Hayashi, 1981)
 Arhopala sangira Bethune-Baker, 1897
 Arhopala schroederi
@@ -788,7 +804,7 @@
 Arhopala staudingeri Semper, 1890
 Arhopala straatmani
 Arhopala tephlis
-Arhopala theba (Hewitson, [1863])
+Arhopala theba (Hewitson, )
 Arhopala tindongani Nuyda &amp; Takanami, 1990
 Arhopala trionaea Semper, 1890 (camdeo group?)
 Arhopala weelii
@@ -822,6 +838,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
